--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2646389.172484753</v>
+        <v>2644137.092773545</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>131.9577048658572</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>94.81275980261576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>258.2317318494237</v>
       </c>
       <c r="V4" t="n">
-        <v>13.02719212039676</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316074</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>134.631133566647</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>169.6984002028141</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091492</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814351</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>136.9968647819699</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176339</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>46.86766651429495</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>102.1557845699818</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127826</v>
       </c>
       <c r="H34" t="n">
-        <v>108.5813113004298</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135853</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>27.77749086859478</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1340.243929312809</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>954.4556767145643</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>1914.135768168901</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>669.4690763615333</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>500.5328934336264</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>350.4162540212907</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>922.6774975139006</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>922.6774975139006</v>
+        <v>851.1175411917731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,37 +4884,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.8289708570296</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>204.8927879291227</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>204.8927879291227</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>204.8927879291227</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5069,10 +5069,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753335</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>282.8695714929404</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>282.8695714929404</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>282.8695714929404</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>141.1577403351385</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>197.0043242297717</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>197.0043242297717</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
         <v>378.192580311172</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438176</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6716,31 +6716,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>984.5467179762944</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C34" t="n">
-        <v>815.6105350483875</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D34" t="n">
-        <v>665.4938956360518</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E34" t="n">
-        <v>517.5808020536587</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F34" t="n">
-        <v>370.6908545557483</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G34" t="n">
-        <v>203.4947552706282</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6917,34 +6917,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,34 +7190,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908938</v>
@@ -7561,58 +7561,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,16 +7728,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.586274966449</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.39816980427057</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>63.36835372228707</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="H34" t="n">
-        <v>31.71340154579411</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850953</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>139.4693302300331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520045</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818172</v>
@@ -26427,13 +26427,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683046</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26442,16 +26442,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
+        <v>12996.86414683043</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12996.86414683042</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="N4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12996.86414683046</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12996.86414683049</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12996.86414683049</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872029.1693157409</v>
+        <v>-872029.1693157408</v>
       </c>
       <c r="C6" t="n">
-        <v>456715.576411852</v>
+        <v>456715.5764118512</v>
       </c>
       <c r="D6" t="n">
         <v>456715.5764118517</v>
       </c>
       <c r="E6" t="n">
-        <v>206185.4239739121</v>
+        <v>206150.6860484761</v>
       </c>
       <c r="F6" t="n">
-        <v>531597.8857812677</v>
+        <v>531563.1478558321</v>
       </c>
       <c r="G6" t="n">
-        <v>531597.8857812675</v>
+        <v>531563.1478558315</v>
       </c>
       <c r="H6" t="n">
-        <v>531597.8857812675</v>
+        <v>531563.1478558319</v>
       </c>
       <c r="I6" t="n">
-        <v>531597.8857812675</v>
+        <v>531563.1478558315</v>
       </c>
       <c r="J6" t="n">
-        <v>314066.6833839899</v>
+        <v>314031.9454585537</v>
       </c>
       <c r="K6" t="n">
-        <v>531597.8857812675</v>
+        <v>531563.1478558319</v>
       </c>
       <c r="L6" t="n">
-        <v>531597.8857812673</v>
+        <v>531563.1478558322</v>
       </c>
       <c r="M6" t="n">
-        <v>446542.8578457554</v>
+        <v>446508.1199203201</v>
       </c>
       <c r="N6" t="n">
-        <v>531597.8857812672</v>
+        <v>531563.1478558322</v>
       </c>
       <c r="O6" t="n">
-        <v>531597.8857812671</v>
+        <v>531563.147855832</v>
       </c>
       <c r="P6" t="n">
-        <v>531597.8857812675</v>
+        <v>531563.147855832</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.9183408758533</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>27.9801063561892</v>
       </c>
       <c r="V4" t="n">
-        <v>239.1104512034312</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244461</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.12388134767377</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>56.01125518622302</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047089</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803255</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>8.424183240961383</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779087</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312108</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>567.7870775946146</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245826</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,10 +35577,10 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060468</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867663</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>425.1908331501702</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>224.3390294385611</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
